--- a/assets/downloadables/MIS ATTENDANCE SHEET.xlsx
+++ b/assets/downloadables/MIS ATTENDANCE SHEET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Systems\dti_web_app_v2\assets\downloadables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B2FF905-F86C-4DD2-AE30-03AEEC19718D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23A50CD-2388-4381-B251-5E630A58F2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4230" windowWidth="28800" windowHeight="11295" xr2:uid="{C71D0DA5-A744-4E67-AD17-F6C41686E33E}"/>
+    <workbookView xWindow="39585" yWindow="1440" windowWidth="26535" windowHeight="13365" xr2:uid="{C71D0DA5-A744-4E67-AD17-F6C41686E33E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,10 @@
     <t>NAME / ORG NAME</t>
   </si>
   <si>
-    <t>CIVIL STATUS (If Applicable</t>
-  </si>
-  <si>
     <t>PRIMARY CROP (If Applicable)</t>
+  </si>
+  <si>
+    <t>SECTORAL( ,Seprated)</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2"/>
     </row>
